--- a/biology/Zoologie/Amblysominae/Amblysominae.xlsx
+++ b/biology/Zoologie/Amblysominae/Amblysominae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amblysominae est une sous-famille de mammifères de la famille des Chrysochloridae. Traditionnellement classées dans l'ordre des Insectivora, les espèces de ce groupe ont été réunies de préférence dans l'ordre plus récent des Afrosoricida à la fin du XXe siècle.
 Cette sous-famille a été décrite pour la première fois en 1957 par le zoologiste italien Alberto Mario Simonetta.
@@ -512,14 +524,50 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Mammal Species of the World (version 3, 2005)  (15 décembre 2014)[2], ITIS      (15 décembre 2014)[1] et NCBI  (15 décembre 2014)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (15 décembre 2014), ITIS      (15 décembre 2014) et NCBI  (15 décembre 2014) :
 genre Amblysomus Pomel, 1848
 genre Calcochloris Mivart, 1867
-genre Neamblysomus Roberts, 1924
-Liste des genres, sous-genres et espèces
-Selon Mammal Species of the World (version 3, 2005)  (15 décembre 2014)[2] :
+genre Neamblysomus Roberts, 1924</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Amblysominae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amblysominae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des genres, sous-genres et espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (15 décembre 2014) :
 genre Amblysomus
 Amblysomus corriae
 Amblysomus hottentotus
